--- a/app/Recursos Marcas/Somos La Verdad/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Somos La Verdad/Plantilla modificada.xlsx
@@ -211,10 +211,10 @@
     <t>Rojo</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Aceptación/Aceptaciขn+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Aceptación/Aceptaciขn+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Aceptación/Aceptaciขn+3+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Aceptación/Aceptaciขn+4+Rojo.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Afirmación/Afirmaciขn+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Afirmación/Afirmaciขn+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Afirmación/Afirmaciขn+3+Negro.jpg']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Aceptaci%E0%B8%82n/Aceptaciขn+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Aceptaci%E0%B8%82n/Aceptaciขn+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Aceptaci%E0%B8%82n/Aceptaciขn+3+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Aceptaci%E0%B8%82n/Aceptaciขn+4+Rojo.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Afirmaci%E0%B8%82n/Afirmaciขn+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Afirmaci%E0%B8%82n/Afirmaciขn+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Afirmaci%E0%B8%82n/Afirmaciขn+3+Negro.jpg']</t>
   </si>
   <si>
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Autenticidad/Autenticidad+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Autenticidad/Autenticidad+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Autenticidad/Autenticidad+3+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Autenticidad/Autenticidad+4+Negro.jpg']</t>
@@ -229,7 +229,7 @@
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Franqueza/Franqueza+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Franqueza/Franqueza+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Franqueza/Franqueza+3+Azul.jpg']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuición/Intuiciขn+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuición/Intuiciขn+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuición/Intuiciขn+3+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuición/Intuiciขn+4+Azul.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuición/Intuiciขn+5+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuición/Intuiciขn+6+Rojo.png']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuici%E0%B8%82n/Intuiciขn+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuici%E0%B8%82n/Intuiciขn+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuici%E0%B8%82n/Intuiciขn+3+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuici%E0%B8%82n/Intuiciขn+4+Azul.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuici%E0%B8%82n/Intuiciขn+5+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Intuici%E0%B8%82n/Intuiciขn+6+Rojo.png']</t>
   </si>
   <si>
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Realidad/Realidad+1+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Realidad/Realidad+2+Negro.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Somos+La+Verdad/Realidad/Realidad+3+Negro.jpg']</t>
